--- a/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24239</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16125</v>
+        <v>15867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34169</v>
+        <v>34375</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06495011745470528</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04320867227686392</v>
+        <v>0.04251654015894223</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09155915787573689</v>
+        <v>0.09211208959135221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -765,19 +765,19 @@
         <v>33753</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22286</v>
+        <v>22429</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44663</v>
+        <v>47192</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05742779131707602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03791697506250628</v>
+        <v>0.03816095401114208</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0759897669134538</v>
+        <v>0.08029237193003398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -786,19 +786,19 @@
         <v>57992</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44659</v>
+        <v>45541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75110</v>
+        <v>75667</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06034915350456658</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04647466735344426</v>
+        <v>0.04739256276294934</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07816368619412684</v>
+        <v>0.07874313286536055</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>35766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26295</v>
+        <v>26148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47893</v>
+        <v>46725</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09583937613346566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07046066754169188</v>
+        <v>0.07006601088208994</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1283350652084524</v>
+        <v>0.1252049893183765</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -836,19 +836,19 @@
         <v>43378</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31715</v>
+        <v>32634</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56616</v>
+        <v>58868</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07380423355678679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05395930941515616</v>
+        <v>0.05552400091623012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09632653775477087</v>
+        <v>0.1001577413139389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -857,19 +857,19 @@
         <v>79145</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63642</v>
+        <v>64664</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>99138</v>
+        <v>97033</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08236177694718287</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06622927772817061</v>
+        <v>0.06729274441498256</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1031676992291527</v>
+        <v>0.1009776875645635</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>313184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>299978</v>
+        <v>299321</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>326618</v>
+        <v>325685</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.839210506411829</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8038240915856865</v>
+        <v>0.8020617712229532</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8752082642411101</v>
+        <v>0.8727073283258719</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>503</v>
@@ -907,19 +907,19 @@
         <v>510618</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>493987</v>
+        <v>489831</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>526543</v>
+        <v>525143</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8687679751261372</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8404728692393647</v>
+        <v>0.8334023570708211</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8958641700935235</v>
+        <v>0.8934823284166956</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>837</v>
@@ -928,19 +928,19 @@
         <v>823802</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>799137</v>
+        <v>801049</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>844905</v>
+        <v>844206</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8572890695482506</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8316221502287341</v>
+        <v>0.83361136585493</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.879250623746505</v>
+        <v>0.8785227419946803</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4991</v>
+        <v>4660</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0109667754376508</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05666164868951273</v>
+        <v>0.05290112705418862</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1053,19 +1053,19 @@
         <v>3216</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9431</v>
+        <v>8599</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05169000573531981</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01477292178264334</v>
+        <v>0.01453862177585309</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1515954808859988</v>
+        <v>0.1382174890775931</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1074,19 +1074,19 @@
         <v>4182</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10056</v>
+        <v>10064</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02782344070171532</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007573078768800878</v>
+        <v>0.007499280316949342</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06691113808468685</v>
+        <v>0.06696458214315147</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>7941</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3862</v>
+        <v>4248</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13997</v>
+        <v>14047</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09014919068597278</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04384897293619046</v>
+        <v>0.04822471634389998</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1589029829247731</v>
+        <v>0.1594698690633361</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1127,16 +1127,16 @@
         <v>1097</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8948</v>
+        <v>8970</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05396085249172631</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01763662580437915</v>
+        <v>0.01763977211648366</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1438289240409796</v>
+        <v>0.1441832665670784</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -1145,19 +1145,19 @@
         <v>11298</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6188</v>
+        <v>6060</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18501</v>
+        <v>18548</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07516966428435304</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04117312326169362</v>
+        <v>0.04031875524278212</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1230988137080069</v>
+        <v>0.1234117854454234</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>79176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72996</v>
+        <v>72978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83578</v>
+        <v>83471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8988840338763764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8287160048196237</v>
+        <v>0.8285183250348299</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.948854746696207</v>
+        <v>0.9476357114197622</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1195,19 +1195,19 @@
         <v>55639</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49222</v>
+        <v>48942</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59260</v>
+        <v>59882</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8943491417729539</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7912055891036265</v>
+        <v>0.7867010502152256</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9525479255594971</v>
+        <v>0.9625516966432643</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -1216,19 +1216,19 @@
         <v>134816</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126628</v>
+        <v>126400</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>140737</v>
+        <v>140913</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8970068950139316</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.842531966256806</v>
+        <v>0.841010828366806</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9364067127396362</v>
+        <v>0.9375745203358543</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5110</v>
+        <v>5226</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02318860659642652</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1240463819592315</v>
+        <v>0.1268677140568061</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4494</v>
+        <v>4940</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01403213071516917</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06601804316023566</v>
+        <v>0.07256043737836076</v>
       </c>
     </row>
     <row r="13">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10280</v>
+        <v>9722</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08277867146701288</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2495410702529226</v>
+        <v>0.2360056999352761</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7169</v>
+        <v>6579</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07530920836487574</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2667110423241276</v>
+        <v>0.2447353367656645</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1425,19 +1425,19 @@
         <v>5434</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1702</v>
+        <v>1632</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12875</v>
+        <v>12823</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07982920753711896</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02500624634459525</v>
+        <v>0.0239696413934067</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1891271640320978</v>
+        <v>0.1883592490488906</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>36829</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29951</v>
+        <v>30904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40233</v>
+        <v>41194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8940327219365606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7270769737948167</v>
+        <v>0.7502064610252634</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.976662115259203</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1475,7 +1475,7 @@
         <v>24857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19712</v>
+        <v>20302</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>26881</v>
@@ -1484,7 +1484,7 @@
         <v>0.9246907916351242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.733288957675872</v>
+        <v>0.7552646632343351</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1496,19 +1496,19 @@
         <v>61685</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53317</v>
+        <v>54368</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66180</v>
+        <v>66094</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9061386617477118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7832146228581232</v>
+        <v>0.7986492370351166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9721627575017926</v>
+        <v>0.9709001903531859</v>
       </c>
     </row>
     <row r="15">
@@ -1600,19 +1600,19 @@
         <v>26160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17471</v>
+        <v>18064</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37184</v>
+        <v>36674</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05206300139523862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03477001721795499</v>
+        <v>0.03595144618903784</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07400348394523201</v>
+        <v>0.07298846737828409</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1621,19 +1621,19 @@
         <v>36969</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26009</v>
+        <v>27254</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51700</v>
+        <v>51046</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05461966456545812</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0384275121515285</v>
+        <v>0.04026693873768514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07638450776187809</v>
+        <v>0.07541811319227922</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -1642,19 +1642,19 @@
         <v>63129</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49151</v>
+        <v>48456</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80785</v>
+        <v>77673</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05353035089442573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04167810869620627</v>
+        <v>0.04108812804599703</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06850235725141078</v>
+        <v>0.06586340203735867</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>47117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35659</v>
+        <v>35620</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62012</v>
+        <v>61216</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09377111102820263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07096868829220887</v>
+        <v>0.07088950444861032</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1234143258421908</v>
+        <v>0.1218320866276909</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1692,19 +1692,19 @@
         <v>48760</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36494</v>
+        <v>35756</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62934</v>
+        <v>62581</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07204010187718481</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05391732431456404</v>
+        <v>0.05282782131600264</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09298183951982289</v>
+        <v>0.09246062615609922</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>95</v>
@@ -1713,19 +1713,19 @@
         <v>95877</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77272</v>
+        <v>78134</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>115938</v>
+        <v>114224</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08129900059691769</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06552347274605826</v>
+        <v>0.06625419810375258</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09831023571546507</v>
+        <v>0.09685708885036873</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>429189</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>412812</v>
+        <v>413377</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>444460</v>
+        <v>443809</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8541658875765588</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8215713516615216</v>
+        <v>0.8226969055328243</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8845577860761304</v>
+        <v>0.8832611003337763</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>582</v>
@@ -1763,19 +1763,19 @@
         <v>591113</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>570940</v>
+        <v>572975</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>606831</v>
+        <v>608287</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8733402335573571</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8435352223592212</v>
+        <v>0.8465423608250856</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8965619276838305</v>
+        <v>0.8987137934524398</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1027</v>
@@ -1784,19 +1784,19 @@
         <v>1020303</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>996419</v>
+        <v>994755</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1043965</v>
+        <v>1043104</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8651706485086565</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.844918244951911</v>
+        <v>0.8435075339140933</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8852352423416595</v>
+        <v>0.8845051236135916</v>
       </c>
     </row>
     <row r="19">
@@ -2127,19 +2127,19 @@
         <v>49933</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36303</v>
+        <v>36930</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65922</v>
+        <v>64869</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1204950396569723</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08760449140731937</v>
+        <v>0.08911692046942626</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1590779587976682</v>
+        <v>0.1565372173735763</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -2148,19 +2148,19 @@
         <v>70779</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56110</v>
+        <v>55522</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88467</v>
+        <v>88547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1115436613506374</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08842584163814177</v>
+        <v>0.08749817403059414</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1394177433075087</v>
+        <v>0.1395440961341647</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>108</v>
@@ -2169,19 +2169,19 @@
         <v>120712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99951</v>
+        <v>101660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142848</v>
+        <v>143570</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1150800148531641</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09528790111540755</v>
+        <v>0.09691705982124375</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1361833875122574</v>
+        <v>0.1368715098837288</v>
       </c>
     </row>
     <row r="5">
@@ -2198,19 +2198,19 @@
         <v>52819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40076</v>
+        <v>39721</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68584</v>
+        <v>68886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1274595309058233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09670868781116672</v>
+        <v>0.09585142804102632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1655030232886905</v>
+        <v>0.1662314341242843</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -2219,19 +2219,19 @@
         <v>66759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51294</v>
+        <v>52873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81841</v>
+        <v>84155</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1052082994597589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08083554796998969</v>
+        <v>0.08332416587465899</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1289766574412743</v>
+        <v>0.1326222444327344</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -2240,19 +2240,19 @@
         <v>119578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99037</v>
+        <v>97726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>141499</v>
+        <v>141042</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1139989256144076</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09441584287710712</v>
+        <v>0.09316652958941329</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.134897094590863</v>
+        <v>0.1344613736648953</v>
       </c>
     </row>
     <row r="6">
@@ -2269,19 +2269,19 @@
         <v>311646</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>291155</v>
+        <v>292668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>329245</v>
+        <v>328250</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7520454294372043</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7025970032108593</v>
+        <v>0.7062482594256174</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.794514641531866</v>
+        <v>0.7921121217108889</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>470</v>
@@ -2290,19 +2290,19 @@
         <v>497006</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>475819</v>
+        <v>475884</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>519281</v>
+        <v>517689</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7832480391896036</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7498583686117875</v>
+        <v>0.74996121172928</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8183510541011195</v>
+        <v>0.8158432334403192</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>758</v>
@@ -2311,19 +2311,19 @@
         <v>808651</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>781890</v>
+        <v>779671</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>835072</v>
+        <v>836975</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7709210595324283</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7454083649556984</v>
+        <v>0.743293190788775</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7961092844471932</v>
+        <v>0.7979229905855488</v>
       </c>
     </row>
     <row r="7">
@@ -2415,19 +2415,19 @@
         <v>4030</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1026</v>
+        <v>1062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9884</v>
+        <v>11177</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03395967399308131</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008649105366899177</v>
+        <v>0.00894883822419758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08328962216654845</v>
+        <v>0.09418673760327549</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -2457,19 +2457,19 @@
         <v>6454</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2355</v>
+        <v>2977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13580</v>
+        <v>13278</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03199087440449658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01167299072399015</v>
+        <v>0.01475753848167349</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06731406764768115</v>
+        <v>0.06581529643466912</v>
       </c>
     </row>
     <row r="9">
@@ -2486,19 +2486,19 @@
         <v>11878</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6020</v>
+        <v>6175</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21526</v>
+        <v>20924</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1000998496602394</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05073385183868875</v>
+        <v>0.0520411550206083</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1813985570883825</v>
+        <v>0.1763293803029464</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -2507,19 +2507,19 @@
         <v>5165</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2015</v>
+        <v>1990</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11389</v>
+        <v>10667</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06217299639747915</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02425263889977844</v>
+        <v>0.02395196517265836</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1370929464278145</v>
+        <v>0.1284005589506703</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -2528,19 +2528,19 @@
         <v>17043</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9284</v>
+        <v>9295</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26989</v>
+        <v>27808</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08448190405796681</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04602196532588191</v>
+        <v>0.04607193555196436</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1337811849316534</v>
+        <v>0.1378404988530018</v>
       </c>
     </row>
     <row r="10">
@@ -2557,19 +2557,19 @@
         <v>102757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92065</v>
+        <v>93593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109399</v>
+        <v>110086</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8659404763466793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7758407309532551</v>
+        <v>0.7887174383618273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9219147229153567</v>
+        <v>0.9277070458762861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -2578,19 +2578,19 @@
         <v>75485</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68491</v>
+        <v>69000</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79870</v>
+        <v>79896</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9086483920488663</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8244597831273234</v>
+        <v>0.830590325295714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9614318635124502</v>
+        <v>0.9617420039192486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>161</v>
@@ -2599,19 +2599,19 @@
         <v>178242</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>167518</v>
+        <v>166563</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187814</v>
+        <v>187191</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8835272215375366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8303716311853926</v>
+        <v>0.8256339154123566</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9309768631277596</v>
+        <v>0.9278850005521601</v>
       </c>
     </row>
     <row r="11">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7188</v>
+        <v>6627</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04271052085968116</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1472318218838271</v>
+        <v>0.1357357228208626</v>
       </c>
     </row>
     <row r="13">
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5278</v>
+        <v>5334</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03923360703863061</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1986170841285252</v>
+        <v>0.2007010018580365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6663</v>
+        <v>6768</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09956782601672624</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2995068698213548</v>
+        <v>0.3042338294797753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -2816,19 +2816,19 @@
         <v>3258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>995</v>
+        <v>1006</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9007</v>
+        <v>8978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06672598335482166</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02037594726091214</v>
+        <v>0.02061490384520999</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1844997265783276</v>
+        <v>0.1838885418492283</v>
       </c>
     </row>
     <row r="14">
@@ -2845,7 +2845,7 @@
         <v>24547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20529</v>
+        <v>19941</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>26575</v>
@@ -2854,7 +2854,7 @@
         <v>0.9236788816403221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7724807587636594</v>
+        <v>0.7503828793083349</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2866,19 +2866,19 @@
         <v>18931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14231</v>
+        <v>14101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21278</v>
+        <v>21246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8510045184375872</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6396898473122546</v>
+        <v>0.6338792440095338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9564939554511979</v>
+        <v>0.9550503109106687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -2887,19 +2887,19 @@
         <v>43478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37276</v>
+        <v>37454</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46805</v>
+        <v>46828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8905634957854972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7635251311718171</v>
+        <v>0.7671753033115445</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9587129865921835</v>
+        <v>0.9591848280688907</v>
       </c>
     </row>
     <row r="15">
@@ -2991,19 +2991,19 @@
         <v>54948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42037</v>
+        <v>41838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70878</v>
+        <v>71179</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09818555045090073</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07511403715418052</v>
+        <v>0.07475844284161984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1266507057156983</v>
+        <v>0.1271872972847241</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -3012,19 +3012,19 @@
         <v>74303</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57386</v>
+        <v>58691</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93367</v>
+        <v>93684</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1004277700578842</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07756229986214827</v>
+        <v>0.07932603678029893</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1261950078879255</v>
+        <v>0.1266233877011905</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -3033,19 +3033,19 @@
         <v>129251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108500</v>
+        <v>108638</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155918</v>
+        <v>153960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09946214695849649</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08349339787227134</v>
+        <v>0.08359949187652246</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1199825866555624</v>
+        <v>0.1184758937682295</v>
       </c>
     </row>
     <row r="17">
@@ -3062,19 +3062,19 @@
         <v>65740</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51134</v>
+        <v>49865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85584</v>
+        <v>84086</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1174687752140285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09136945006769699</v>
+        <v>0.08910284319244671</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1529281127084042</v>
+        <v>0.1502513196411456</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>69</v>
@@ -3083,19 +3083,19 @@
         <v>74139</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59491</v>
+        <v>59542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92924</v>
+        <v>91862</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1002065622864767</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08040746293919881</v>
+        <v>0.08047644015281921</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.12559624283648</v>
+        <v>0.1241610225518696</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>126</v>
@@ -3104,19 +3104,19 @@
         <v>139879</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>117564</v>
+        <v>118028</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>163931</v>
+        <v>164248</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1076406207067483</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09046883599099258</v>
+        <v>0.09082582791098547</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1261487550965979</v>
+        <v>0.1263932788366463</v>
       </c>
     </row>
     <row r="18">
@@ -3133,19 +3133,19 @@
         <v>438949</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>417350</v>
+        <v>417026</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>458466</v>
+        <v>459388</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7843456743350707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7457506751723321</v>
+        <v>0.745172648614903</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8192209495011791</v>
+        <v>0.8208671864055702</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>555</v>
@@ -3154,19 +3154,19 @@
         <v>591423</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>568897</v>
+        <v>569196</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>613563</v>
+        <v>612355</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7993656676556391</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7689194214984379</v>
+        <v>0.7693238431976154</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8292901068423086</v>
+        <v>0.8276578364708467</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>953</v>
@@ -3175,19 +3175,19 @@
         <v>1030372</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1000424</v>
+        <v>998477</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1060373</v>
+        <v>1063711</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7928972323347552</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7698516440757521</v>
+        <v>0.76835388648387</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8159840403961979</v>
+        <v>0.8185527892434854</v>
       </c>
     </row>
     <row r="19">
@@ -3518,19 +3518,19 @@
         <v>28407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20233</v>
+        <v>20270</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39175</v>
+        <v>39915</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08026846592338285</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05717200021525448</v>
+        <v>0.05727464137542612</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1106954964438261</v>
+        <v>0.1127865116445821</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -3539,19 +3539,19 @@
         <v>43920</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30575</v>
+        <v>31749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60894</v>
+        <v>59352</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0791691949354421</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05511349981797335</v>
+        <v>0.05723083925747936</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1097673246826064</v>
+        <v>0.106988212927204</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -3560,19 +3560,19 @@
         <v>72327</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55679</v>
+        <v>55532</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89401</v>
+        <v>89937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07959733565008562</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06127634576758777</v>
+        <v>0.06111398599265584</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09838843001576489</v>
+        <v>0.09897735409792263</v>
       </c>
     </row>
     <row r="5">
@@ -3589,19 +3589,19 @@
         <v>37929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27546</v>
+        <v>27825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49223</v>
+        <v>50257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1071742152066229</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07783496059466045</v>
+        <v>0.07862461254717253</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1390866513020621</v>
+        <v>0.1420088600364274</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -3610,19 +3610,19 @@
         <v>53276</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39019</v>
+        <v>39649</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70081</v>
+        <v>70838</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09603531347337113</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07033503068512353</v>
+        <v>0.07147097527129777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1263276370511777</v>
+        <v>0.1276921979224387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -3631,19 +3631,19 @@
         <v>91205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72346</v>
+        <v>73499</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109454</v>
+        <v>112174</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1003736589775602</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07961836082124409</v>
+        <v>0.08088692050318004</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1204573045266533</v>
+        <v>0.1234501728260319</v>
       </c>
     </row>
     <row r="6">
@@ -3660,19 +3660,19 @@
         <v>287565</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>274501</v>
+        <v>272423</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>301182</v>
+        <v>300576</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8125573188699943</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7756427173514161</v>
+        <v>0.7697728127213638</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8510334544313</v>
+        <v>0.849323283341695</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>395</v>
@@ -3681,19 +3681,19 @@
         <v>457561</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>436350</v>
+        <v>434795</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>476792</v>
+        <v>476771</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8247954915911868</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7865604532166915</v>
+        <v>0.7837567859948223</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8594603176442391</v>
+        <v>0.8594223213375004</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>706</v>
@@ -3702,19 +3702,19 @@
         <v>745126</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>720478</v>
+        <v>721197</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>768204</v>
+        <v>769456</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8200290053723542</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7929032409303673</v>
+        <v>0.793694819857224</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8454265602868194</v>
+        <v>0.8468050705448962</v>
       </c>
     </row>
     <row r="7">
@@ -3806,19 +3806,19 @@
         <v>6076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2615</v>
+        <v>2228</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12436</v>
+        <v>12870</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03155610986481412</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01358307677946047</v>
+        <v>0.0115710434548952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06459205304179032</v>
+        <v>0.06684769851465563</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3827,19 +3827,19 @@
         <v>5572</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1337</v>
+        <v>1356</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14467</v>
+        <v>16796</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02962479517992208</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007106927711357663</v>
+        <v>0.007211455420080086</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07692015121106709</v>
+        <v>0.08930584270852492</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -3848,19 +3848,19 @@
         <v>11647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5134</v>
+        <v>5266</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22142</v>
+        <v>22190</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03060176315165329</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01348990814892391</v>
+        <v>0.0138355820188611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05817557967453291</v>
+        <v>0.05830128942341135</v>
       </c>
     </row>
     <row r="9">
@@ -3877,19 +3877,19 @@
         <v>8223</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14226</v>
+        <v>14581</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04270743600265149</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0208063206852017</v>
+        <v>0.02080122777956781</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07388900502425962</v>
+        <v>0.07573055409979486</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -3898,19 +3898,19 @@
         <v>14268</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7523</v>
+        <v>7255</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24380</v>
+        <v>24995</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07586374905824128</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03999912392875988</v>
+        <v>0.03857543062339579</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.129627961061418</v>
+        <v>0.1329005459098334</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>21</v>
@@ -3919,19 +3919,19 @@
         <v>22491</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14456</v>
+        <v>14558</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>35393</v>
+        <v>34410</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05909141456019151</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03798242435512985</v>
+        <v>0.0382490064617227</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09299241593223541</v>
+        <v>0.09040819821345995</v>
       </c>
     </row>
     <row r="10">
@@ -3948,19 +3948,19 @@
         <v>178234</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169458</v>
+        <v>170217</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184174</v>
+        <v>184410</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9257364541325344</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8801564440477343</v>
+        <v>0.884096688164982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9565874214557445</v>
+        <v>0.9578166718738786</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>143</v>
@@ -3969,19 +3969,19 @@
         <v>168234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156207</v>
+        <v>156704</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>177717</v>
+        <v>176593</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8945114557618367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8305634393263241</v>
+        <v>0.8332035685312811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9449328430144353</v>
+        <v>0.9389549842351304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>324</v>
@@ -3990,19 +3990,19 @@
         <v>346468</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>334237</v>
+        <v>331905</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>357327</v>
+        <v>357310</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9103068222881552</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.878169393941064</v>
+        <v>0.8720448411124037</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9388367039322265</v>
+        <v>0.938791386039129</v>
       </c>
     </row>
     <row r="11">
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4561</v>
+        <v>4453</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02066047213405714</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1085295393418109</v>
+        <v>0.1059619870850846</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5320</v>
+        <v>3765</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01147035268178621</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07027735121572988</v>
+        <v>0.04973568468037043</v>
       </c>
     </row>
     <row r="13">
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5296</v>
+        <v>5153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03871665076003671</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1260011443576017</v>
+        <v>0.1225948745869287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11433</v>
+        <v>10800</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1067760760106739</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3395337278053085</v>
+        <v>0.3207226774683598</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -4199,19 +4199,19 @@
         <v>5223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1566</v>
+        <v>1593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13950</v>
+        <v>13576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06899060790137503</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0206836177923139</v>
+        <v>0.02104213781364494</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1842788084764001</v>
+        <v>0.1793372523121906</v>
       </c>
     </row>
     <row r="14">
@@ -4228,19 +4228,19 @@
         <v>39533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35764</v>
+        <v>35405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41297</v>
+        <v>41304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9406228771059062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.850944416944776</v>
+        <v>0.8424007881948865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9825798295723286</v>
+        <v>0.9827421287754579</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -4249,7 +4249,7 @@
         <v>30078</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22241</v>
+        <v>22874</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>33674</v>
@@ -4258,7 +4258,7 @@
         <v>0.893223923989326</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.660466272194691</v>
+        <v>0.6792773225316403</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4270,19 +4270,19 @@
         <v>69612</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60828</v>
+        <v>61109</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>73545</v>
+        <v>73503</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9195390394168388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8035028483769231</v>
+        <v>0.8072181920407745</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9714925259294177</v>
+        <v>0.9709440365013391</v>
       </c>
     </row>
     <row r="15">
@@ -4374,19 +4374,19 @@
         <v>35351</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26105</v>
+        <v>25554</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47006</v>
+        <v>46612</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.060073530604373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0443609225142027</v>
+        <v>0.04342559435760503</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0798791360474657</v>
+        <v>0.07921031993205038</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -4395,19 +4395,19 @@
         <v>49491</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35616</v>
+        <v>35249</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67189</v>
+        <v>67495</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06373598371236479</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04586742418418673</v>
+        <v>0.04539478879928066</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08652773892005822</v>
+        <v>0.08692155575221393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -4416,19 +4416,19 @@
         <v>84842</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67021</v>
+        <v>68596</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>105611</v>
+        <v>107063</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06215703268041262</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04910111399414558</v>
+        <v>0.05025498518357901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07737277118558122</v>
+        <v>0.07843621510626506</v>
       </c>
     </row>
     <row r="17">
@@ -4445,19 +4445,19 @@
         <v>47779</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36801</v>
+        <v>37172</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61291</v>
+        <v>61352</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08119272429418228</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0625378951988087</v>
+        <v>0.06316712962347176</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1041535662786356</v>
+        <v>0.1042577405486991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -4466,19 +4466,19 @@
         <v>71140</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53682</v>
+        <v>54869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92400</v>
+        <v>90061</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0916154266132453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06913258070351339</v>
+        <v>0.07066110706458439</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1189951433073531</v>
+        <v>0.1159818845419068</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>109</v>
@@ -4487,19 +4487,19 @@
         <v>118919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>98827</v>
+        <v>98411</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>144082</v>
+        <v>139913</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08712200755854006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07240274049930119</v>
+        <v>0.07209783390356672</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1055573977091574</v>
+        <v>0.1025030323422094</v>
       </c>
     </row>
     <row r="18">
@@ -4516,19 +4516,19 @@
         <v>505333</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>489642</v>
+        <v>489434</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>521124</v>
+        <v>519387</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8587337451014447</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8320695447233259</v>
+        <v>0.8317152930267454</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8855683675618001</v>
+        <v>0.8826163634011104</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>562</v>
@@ -4537,19 +4537,19 @@
         <v>655874</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>629086</v>
+        <v>632402</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>675846</v>
+        <v>677395</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8446485896743899</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8101509123286509</v>
+        <v>0.8144215290634517</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8703695526989449</v>
+        <v>0.8723640530716166</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1092</v>
@@ -4558,19 +4558,19 @@
         <v>1161207</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1131669</v>
+        <v>1135050</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1191934</v>
+        <v>1186806</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8507209597610473</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8290809046963408</v>
+        <v>0.8315582517290229</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8732319172995375</v>
+        <v>0.8694756935546931</v>
       </c>
     </row>
     <row r="19">
@@ -4901,19 +4901,19 @@
         <v>35367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27843</v>
+        <v>27350</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45801</v>
+        <v>44817</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.122929656627174</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09677825063434783</v>
+        <v>0.09506475102405836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1591937587217944</v>
+        <v>0.155774983152411</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -4922,19 +4922,19 @@
         <v>73629</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62222</v>
+        <v>62235</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86066</v>
+        <v>86399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1366590630432211</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.115487553378865</v>
+        <v>0.1155112694679428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1597423775164811</v>
+        <v>0.160359618919885</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -4943,19 +4943,19 @@
         <v>108996</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94487</v>
+        <v>95662</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124451</v>
+        <v>125198</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1318797945930832</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1143241676150238</v>
+        <v>0.1157454779850262</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1505792629851699</v>
+        <v>0.1514830294554791</v>
       </c>
     </row>
     <row r="5">
@@ -4972,19 +4972,19 @@
         <v>39716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31195</v>
+        <v>30304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49700</v>
+        <v>49782</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1380455885219939</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1084272322900386</v>
+        <v>0.1053311871237606</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.172748980633925</v>
+        <v>0.1730338687475704</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -4993,19 +4993,19 @@
         <v>80889</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70185</v>
+        <v>69754</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95139</v>
+        <v>93082</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1501329882838178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1302655808135422</v>
+        <v>0.1294665939595901</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1765817293955551</v>
+        <v>0.1727643645700499</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>219</v>
@@ -5014,19 +5014,19 @@
         <v>120605</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105737</v>
+        <v>105810</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>136709</v>
+        <v>135382</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1459253097742525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1279357721101963</v>
+        <v>0.1280242104394538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1654105699985979</v>
+        <v>0.1638051794374272</v>
       </c>
     </row>
     <row r="6">
@@ -5043,19 +5043,19 @@
         <v>212620</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>201682</v>
+        <v>200893</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>224201</v>
+        <v>224723</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7390247548508323</v>
+        <v>0.7390247548508322</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7010064963765646</v>
+        <v>0.6982638266515691</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7792798595106709</v>
+        <v>0.7810928065670447</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>722</v>
@@ -5064,19 +5064,19 @@
         <v>384263</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>368583</v>
+        <v>369113</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>398704</v>
+        <v>399111</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7132079486729609</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6841052443811118</v>
+        <v>0.6850896581879132</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7400109699388859</v>
+        <v>0.7407662905262528</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1025</v>
@@ -5085,19 +5085,19 @@
         <v>596882</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>577807</v>
+        <v>577760</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>619016</v>
+        <v>616529</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7221948956326645</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.699115473267839</v>
+        <v>0.6990580877489349</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7489764548951127</v>
+        <v>0.7459664275960661</v>
       </c>
     </row>
     <row r="7">
@@ -5189,19 +5189,19 @@
         <v>12912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8097</v>
+        <v>8072</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20062</v>
+        <v>19785</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04249660492842338</v>
+        <v>0.04249660492842339</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02664890426351086</v>
+        <v>0.02656862008159459</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06603212327704494</v>
+        <v>0.06511988609735407</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -5210,19 +5210,19 @@
         <v>6532</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3637</v>
+        <v>3213</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11573</v>
+        <v>11152</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02352776437070235</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01310087407975716</v>
+        <v>0.01157406438452412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04168144093568037</v>
+        <v>0.04016609779709975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -5231,19 +5231,19 @@
         <v>19444</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13706</v>
+        <v>12990</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28758</v>
+        <v>27392</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0334391982611346</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02357187172150828</v>
+        <v>0.02233907961379535</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04945750532239231</v>
+        <v>0.04710884123538751</v>
       </c>
     </row>
     <row r="9">
@@ -5260,19 +5260,19 @@
         <v>20436</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14600</v>
+        <v>14490</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30115</v>
+        <v>28227</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06726349283699506</v>
+        <v>0.06726349283699508</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04805522632164072</v>
+        <v>0.04769325534208248</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09912007987541793</v>
+        <v>0.09290698865493034</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -5281,19 +5281,19 @@
         <v>26758</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20087</v>
+        <v>20445</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33900</v>
+        <v>34630</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09637611856525834</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07234722445704649</v>
+        <v>0.07363595913056269</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1220997012176586</v>
+        <v>0.1247289586356153</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>83</v>
@@ -5302,19 +5302,19 @@
         <v>47195</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>38287</v>
+        <v>37615</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58553</v>
+        <v>58211</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08116444211067778</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06584464291254627</v>
+        <v>0.06468955361719728</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1006976521435855</v>
+        <v>0.1001092874860763</v>
       </c>
     </row>
     <row r="10">
@@ -5331,19 +5331,19 @@
         <v>270477</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>260354</v>
+        <v>261613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>278507</v>
+        <v>278797</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8902399022345813</v>
+        <v>0.8902399022345815</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.85692228310708</v>
+        <v>0.8610641518171318</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9166678168392662</v>
+        <v>0.9176236862771666</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>465</v>
@@ -5352,19 +5352,19 @@
         <v>244355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>235429</v>
+        <v>235953</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>251644</v>
+        <v>251354</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8800961170640393</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.847947717648458</v>
+        <v>0.8498344827463953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9063483568711699</v>
+        <v>0.9053026611610395</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>840</v>
@@ -5373,19 +5373,19 @@
         <v>514832</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>502428</v>
+        <v>502357</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>525723</v>
+        <v>527184</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8853963596281877</v>
+        <v>0.8853963596281876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8640633277675055</v>
+        <v>0.8639418166513965</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9041261831233004</v>
+        <v>0.9066392216290438</v>
       </c>
     </row>
     <row r="11">
@@ -5477,19 +5477,19 @@
         <v>2137</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5708</v>
+        <v>6519</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01797623551031466</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004715074793562814</v>
+        <v>0.00466166874101837</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04801744278377173</v>
+        <v>0.0548346679014997</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5511,19 +5511,19 @@
         <v>2137</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6269</v>
+        <v>5931</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01059320105098964</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002777048558223569</v>
+        <v>0.00275410096871048</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03107418214931646</v>
+        <v>0.029402246389782</v>
       </c>
     </row>
     <row r="13">
@@ -5540,19 +5540,19 @@
         <v>7081</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3847</v>
+        <v>3291</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12169</v>
+        <v>11841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05956781833923765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03236016059984687</v>
+        <v>0.02768670774307752</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1023589720189129</v>
+        <v>0.09960738594641443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5561,19 +5561,19 @@
         <v>5802</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3045</v>
+        <v>2890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9922</v>
+        <v>10282</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07002721114844881</v>
+        <v>0.0700272111484488</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03674592052056418</v>
+        <v>0.03487897241864048</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1197540008294105</v>
+        <v>0.1240906418061092</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -5582,19 +5582,19 @@
         <v>12884</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8623</v>
+        <v>8265</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19205</v>
+        <v>19432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06386360415544554</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04274295175913338</v>
+        <v>0.04097173818558186</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09519874872559063</v>
+        <v>0.09632472203948576</v>
       </c>
     </row>
     <row r="14">
@@ -5611,19 +5611,19 @@
         <v>109662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103940</v>
+        <v>104275</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>113548</v>
+        <v>113839</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9224559461504477</v>
+        <v>0.9224559461504476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8743188554144475</v>
+        <v>0.8771417543610189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9551432751506337</v>
+        <v>0.9575919885334019</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>142</v>
@@ -5632,19 +5632,19 @@
         <v>77053</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72933</v>
+        <v>72573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79810</v>
+        <v>79965</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9299727888515511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8802459991705894</v>
+        <v>0.8759093581938908</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9632540794794359</v>
+        <v>0.9651210275813595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>296</v>
@@ -5653,19 +5653,19 @@
         <v>186715</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>180165</v>
+        <v>180430</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>191461</v>
+        <v>191908</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9255431947935648</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8930706908302343</v>
+        <v>0.8943853750012777</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9490667237401296</v>
+        <v>0.9512812267283692</v>
       </c>
     </row>
     <row r="15">
@@ -5757,19 +5757,19 @@
         <v>50416</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40250</v>
+        <v>38429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61832</v>
+        <v>60487</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07096725043044388</v>
+        <v>0.0709672504304439</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05665764656120562</v>
+        <v>0.05409372753623479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08703723341030166</v>
+        <v>0.08514377145916285</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>150</v>
@@ -5778,19 +5778,19 @@
         <v>80162</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69152</v>
+        <v>67768</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>94674</v>
+        <v>93330</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08913964505057517</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07689668139303048</v>
+        <v>0.07535803231831285</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.105276996276283</v>
+        <v>0.1037824325909093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -5799,19 +5799,19 @@
         <v>130577</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113674</v>
+        <v>114995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>149815</v>
+        <v>149809</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08111957713348003</v>
+        <v>0.08111957713348002</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07061861885950568</v>
+        <v>0.07143941034759295</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09307061939585844</v>
+        <v>0.09306719257824873</v>
       </c>
     </row>
     <row r="17">
@@ -5828,19 +5828,19 @@
         <v>67234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54506</v>
+        <v>54921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79850</v>
+        <v>81861</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09464114762109896</v>
+        <v>0.09464114762109893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.076725190098087</v>
+        <v>0.07730932666376104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1123994163696353</v>
+        <v>0.1152309861694169</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>221</v>
@@ -5849,19 +5849,19 @@
         <v>113449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99081</v>
+        <v>99787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>129101</v>
+        <v>128533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.126155464044925</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1101782921966487</v>
+        <v>0.1109630286627779</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1435606291352471</v>
+        <v>0.1429281325302236</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>323</v>
@@ -5870,19 +5870,19 @@
         <v>180683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>160537</v>
+        <v>161375</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>200462</v>
+        <v>200074</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.112247172740271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09973147470058334</v>
+        <v>0.1002522445269128</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1245347323261337</v>
+        <v>0.1242936794005418</v>
       </c>
     </row>
     <row r="18">
@@ -5899,19 +5899,19 @@
         <v>592759</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>575723</v>
+        <v>574586</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>609651</v>
+        <v>608248</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8343916019484572</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8104111853695244</v>
+        <v>0.8088100376669231</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8581696144783512</v>
+        <v>0.8561936884583496</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1329</v>
@@ -5920,19 +5920,19 @@
         <v>705671</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>687054</v>
+        <v>684497</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>723678</v>
+        <v>723192</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7847048909044998</v>
+        <v>0.7847048909044997</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7640029000329849</v>
+        <v>0.7611593653492141</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8047281336769772</v>
+        <v>0.8041887374181365</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2161</v>
@@ -5941,19 +5941,19 @@
         <v>1298430</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1270647</v>
+        <v>1274306</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1323086</v>
+        <v>1324503</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8066332501262491</v>
+        <v>0.8066332501262488</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7893733139625785</v>
+        <v>0.7916463494517598</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8219502005039473</v>
+        <v>0.8228303554919705</v>
       </c>
     </row>
     <row r="19">
